--- a/biology/Botanique/Sporobolus_montanus/Sporobolus_montanus.xlsx
+++ b/biology/Botanique/Sporobolus_montanus/Sporobolus_montanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporobolus montanus est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, endémique du Cameroun.
-C’est une herbe pérenne, de 15-30 cm de haut, appartenant au groupe des Angiospermes et au sous-groupe de Monocotylédones[2]. Elle est connue aussi sous le nom de Vilfa montana Hook. f[3]. 
+C’est une herbe pérenne, de 15-30 cm de haut, appartenant au groupe des Angiospermes et au sous-groupe de Monocotylédones. Elle est connue aussi sous le nom de Vilfa montana Hook. f. 
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sporobolus montanus est une plante herbacée vivace, densément cespiteuse, aux tiges (chaumes) dressées de 15 à 30 cm de long.  Les gaines basales fibreuses, desséchées persistent à la base des tiges. Le limbe foliaire, involuté, est linéaire, de 2 à 10 cm de long sur 1 à 2 mm de large. La ligule est réduite à une rangée de poils[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporobolus montanus est une plante herbacée vivace, densément cespiteuse, aux tiges (chaumes) dressées de 15 à 30 cm de long.  Les gaines basales fibreuses, desséchées persistent à la base des tiges. Le limbe foliaire, involuté, est linéaire, de 2 à 10 cm de long sur 1 à 2 mm de large. La ligule est réduite à une rangée de poils. 
 L'inflorescence est une panicule ouverte, pyramidale, de 4 à 8 cm de long, aux ramifications étalées et verticillées.
 Les épillets, vert foncé et longs de 3,8 à 4 mm, sont portés aux extrémité des ramifications et comptent un fleuron fertile. Ils se désarticulent à maturité sous le fleuron fertile.
-Ils sont sous-tendus par deux glumes membraneuses similaires, la glume supérieure, pourpre ou noire, est plus longue que la lemme adjacente[4].
-Le fruit est un caryopse ellipsoïde, comprimé latéralement, de 1,5 mm de long, au péricarpe tendre, libre[4].
+Ils sont sous-tendus par deux glumes membraneuses similaires, la glume supérieure, pourpre ou noire, est plus longue que la lemme adjacente.
+Le fruit est un caryopse ellipsoïde, comprimé latéralement, de 1,5 mm de long, au péricarpe tendre, libre.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Sporobolus montanus est limitée au Cameroun où elle se rencontre sur le mont Cameroun, entre 2 000 et 4 000 mètres d'altitude et sur les montagnes de Bamenda[5].
-Cette espèce se trouve  sur  les sols  peu  profonds  ou  directement sur la lave[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Sporobolus montanus est limitée au Cameroun où elle se rencontre sur le mont Cameroun, entre 2 000 et 4 000 mètres d'altitude et sur les montagnes de Bamenda.
+Cette espèce se trouve  sur  les sols  peu  profonds  ou  directement sur la lave.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante utilisée comme fourrage[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante utilisée comme fourrage.
 </t>
         </is>
       </c>
